--- a/Alibaba_TestScenarios-Phase-2.xlsx
+++ b/Alibaba_TestScenarios-Phase-2.xlsx
@@ -1632,26 +1632,56 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1662,38 +1692,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114:G115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105:L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6642,43 +6642,43 @@
       </c>
     </row>
     <row r="98" spans="1:20" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="41">
+      <c r="A98" s="37">
         <v>92</v>
       </c>
-      <c r="B98" s="34" t="s">
+      <c r="B98" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D98" s="45" t="s">
+      <c r="D98" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="F98" s="31"/>
+      <c r="F98" s="30"/>
       <c r="G98" s="29" t="s">
         <v>282</v>
       </c>
       <c r="H98" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I98" s="39">
+      <c r="I98" s="32">
         <v>42837</v>
       </c>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="M98" s="31" t="s">
+      <c r="M98" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N98" s="40" t="s">
+      <c r="N98" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="O98" s="40" t="s">
+      <c r="O98" s="41" t="s">
         <v>286</v>
       </c>
       <c r="P98" s="21" t="s">
@@ -6690,21 +6690,21 @@
       <c r="S98" s="1"/>
     </row>
     <row r="99" spans="1:20" s="2" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="42"/>
-      <c r="B99" s="34"/>
-      <c r="C99" s="42"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="31"/>
-      <c r="K99" s="31"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="29"/>
-      <c r="M99" s="31"/>
-      <c r="N99" s="40"/>
-      <c r="O99" s="40"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
       <c r="P99" s="21" t="s">
         <v>331</v>
       </c>
@@ -6712,43 +6712,43 @@
       <c r="S99" s="1"/>
     </row>
     <row r="100" spans="1:20" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="31">
+      <c r="A100" s="30">
         <v>93</v>
       </c>
-      <c r="B100" s="34" t="s">
+      <c r="B100" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D100" s="41" t="s">
+      <c r="D100" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="F100" s="31"/>
+      <c r="F100" s="30"/>
       <c r="G100" s="29" t="s">
         <v>288</v>
       </c>
       <c r="H100" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I100" s="39">
+      <c r="I100" s="32">
         <v>42837</v>
       </c>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
       <c r="L100" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="M100" s="31" t="s">
+      <c r="M100" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="40" t="s">
+      <c r="N100" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="O100" s="40" t="s">
+      <c r="O100" s="41" t="s">
         <v>291</v>
       </c>
       <c r="P100" s="21" t="s">
@@ -6760,21 +6760,21 @@
       <c r="S100" s="1"/>
     </row>
     <row r="101" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
+      <c r="A101" s="30"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
       <c r="G101" s="29"/>
       <c r="H101" s="29"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
       <c r="L101" s="29"/>
-      <c r="M101" s="31"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="41"/>
+      <c r="O101" s="41"/>
       <c r="P101" s="21" t="s">
         <v>331</v>
       </c>
@@ -6782,43 +6782,43 @@
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:20" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="31">
+      <c r="A102" s="30">
         <v>94</v>
       </c>
-      <c r="B102" s="45" t="s">
+      <c r="B102" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D102" s="34" t="s">
+      <c r="D102" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F102" s="31"/>
+      <c r="F102" s="30"/>
       <c r="G102" s="29" t="s">
         <v>294</v>
       </c>
       <c r="H102" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I102" s="39">
+      <c r="I102" s="32">
         <v>42837</v>
       </c>
-      <c r="J102" s="31"/>
-      <c r="K102" s="31"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="M102" s="31" t="s">
+      <c r="M102" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N102" s="40" t="s">
+      <c r="N102" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="O102" s="40" t="s">
+      <c r="O102" s="41" t="s">
         <v>405</v>
       </c>
       <c r="P102" s="21" t="s">
@@ -6832,21 +6832,21 @@
       <c r="T102" s="9"/>
     </row>
     <row r="103" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="31"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="29"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="40"/>
-      <c r="O103" s="40"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="41"/>
+      <c r="O103" s="41"/>
       <c r="P103" s="21" t="s">
         <v>333</v>
       </c>
@@ -6856,21 +6856,21 @@
       <c r="T103" s="9"/>
     </row>
     <row r="104" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="31"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="34"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
       <c r="L104" s="29"/>
-      <c r="M104" s="31"/>
-      <c r="N104" s="40"/>
-      <c r="O104" s="40"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="41"/>
+      <c r="O104" s="41"/>
       <c r="P104" s="21" t="s">
         <v>334</v>
       </c>
@@ -6880,41 +6880,41 @@
       <c r="T104" s="9"/>
     </row>
     <row r="105" spans="1:20" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="31">
+      <c r="A105" s="30">
         <v>95</v>
       </c>
-      <c r="B105" s="34" t="s">
+      <c r="B105" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="34" t="s">
+      <c r="D105" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F105" s="31"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="29" t="s">
         <v>298</v>
       </c>
       <c r="H105" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I105" s="39">
+      <c r="I105" s="32">
         <v>42837</v>
       </c>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
       <c r="L105" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="M105" s="31" t="s">
+      <c r="M105" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N105" s="40"/>
-      <c r="O105" s="40" t="s">
+      <c r="N105" s="41"/>
+      <c r="O105" s="41" t="s">
         <v>406</v>
       </c>
       <c r="P105" s="21" t="s">
@@ -6928,21 +6928,21 @@
       <c r="T105" s="9"/>
     </row>
     <row r="106" spans="1:20" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A106" s="31"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
+      <c r="A106" s="30"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="31"/>
-      <c r="K106" s="31"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
       <c r="L106" s="29"/>
-      <c r="M106" s="31"/>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="41"/>
+      <c r="O106" s="41"/>
       <c r="P106" s="21" t="s">
         <v>336</v>
       </c>
@@ -6952,21 +6952,21 @@
       <c r="T106" s="9"/>
     </row>
     <row r="107" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="31"/>
-      <c r="B107" s="34"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="34"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
+      <c r="A107" s="30"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="39"/>
-      <c r="J107" s="31"/>
-      <c r="K107" s="31"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
       <c r="L107" s="29"/>
-      <c r="M107" s="31"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="40"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="41"/>
+      <c r="O107" s="41"/>
       <c r="P107" s="21" t="s">
         <v>337</v>
       </c>
@@ -6976,43 +6976,43 @@
       <c r="T107" s="9"/>
     </row>
     <row r="108" spans="1:20" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="31">
+      <c r="A108" s="30">
         <v>96</v>
       </c>
-      <c r="B108" s="34" t="s">
+      <c r="B108" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D108" s="34" t="s">
+      <c r="D108" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F108" s="31"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="29" t="s">
         <v>301</v>
       </c>
       <c r="H108" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I108" s="39">
+      <c r="I108" s="32">
         <v>42837</v>
       </c>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
       <c r="L108" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="M108" s="31" t="s">
+      <c r="M108" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N108" s="40" t="s">
+      <c r="N108" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="O108" s="40" t="s">
+      <c r="O108" s="41" t="s">
         <v>407</v>
       </c>
       <c r="P108" s="21" t="s">
@@ -7026,21 +7026,21 @@
       <c r="T108" s="9"/>
     </row>
     <row r="109" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="31"/>
-      <c r="B109" s="34"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="29"/>
       <c r="H109" s="29"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="31"/>
-      <c r="K109" s="31"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
       <c r="L109" s="29"/>
-      <c r="M109" s="31"/>
-      <c r="N109" s="40"/>
-      <c r="O109" s="40"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="41"/>
+      <c r="O109" s="41"/>
       <c r="P109" s="21" t="s">
         <v>338</v>
       </c>
@@ -7048,21 +7048,21 @@
       <c r="S109" s="1"/>
     </row>
     <row r="110" spans="1:20" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="31"/>
-      <c r="B110" s="34"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
+      <c r="A110" s="30"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="29"/>
       <c r="H110" s="29"/>
-      <c r="I110" s="39"/>
-      <c r="J110" s="31"/>
-      <c r="K110" s="31"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
       <c r="L110" s="29"/>
-      <c r="M110" s="31"/>
-      <c r="N110" s="40"/>
-      <c r="O110" s="40"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="41"/>
+      <c r="O110" s="41"/>
       <c r="P110" s="21" t="s">
         <v>339</v>
       </c>
@@ -7118,43 +7118,43 @@
       <c r="S111" s="1"/>
     </row>
     <row r="112" spans="1:20" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="31">
+      <c r="A112" s="30">
         <v>102</v>
       </c>
-      <c r="B112" s="34" t="s">
+      <c r="B112" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D112" s="34" t="s">
+      <c r="D112" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="F112" s="31"/>
+      <c r="F112" s="30"/>
       <c r="G112" s="29" t="s">
         <v>310</v>
       </c>
       <c r="H112" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I112" s="39">
+      <c r="I112" s="32">
         <v>42837</v>
       </c>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
       <c r="L112" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="M112" s="31" t="s">
+      <c r="M112" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N112" s="40" t="s">
+      <c r="N112" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="O112" s="40" t="s">
+      <c r="O112" s="41" t="s">
         <v>409</v>
       </c>
       <c r="P112" s="21" t="s">
@@ -7166,21 +7166,21 @@
       <c r="S112" s="1"/>
     </row>
     <row r="113" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="31"/>
-      <c r="B113" s="34"/>
-      <c r="C113" s="42"/>
-      <c r="D113" s="34"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
+      <c r="A113" s="30"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="29"/>
       <c r="H113" s="29"/>
-      <c r="I113" s="39"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
       <c r="L113" s="29"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="40"/>
-      <c r="O113" s="40"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="41"/>
+      <c r="O113" s="41"/>
       <c r="P113" s="21" t="s">
         <v>341</v>
       </c>
@@ -7188,43 +7188,43 @@
       <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="31">
+      <c r="A114" s="30">
         <v>104</v>
       </c>
-      <c r="B114" s="34" t="s">
+      <c r="B114" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D114" s="34" t="s">
+      <c r="D114" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F114" s="31"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="29" t="s">
         <v>313</v>
       </c>
       <c r="H114" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I114" s="39">
+      <c r="I114" s="32">
         <v>42837</v>
       </c>
-      <c r="J114" s="31"/>
-      <c r="K114" s="31"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="M114" s="31" t="s">
+      <c r="M114" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N114" s="40" t="s">
+      <c r="N114" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="O114" s="40" t="s">
+      <c r="O114" s="41" t="s">
         <v>410</v>
       </c>
       <c r="P114" s="21" t="s">
@@ -7235,22 +7235,22 @@
       </c>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="31"/>
-      <c r="B115" s="34"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="34"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
+    <row r="115" spans="1:19" s="2" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="30"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="35"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="29"/>
       <c r="H115" s="29"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="31"/>
-      <c r="K115" s="31"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
       <c r="L115" s="29"/>
-      <c r="M115" s="31"/>
-      <c r="N115" s="40"/>
-      <c r="O115" s="40"/>
+      <c r="M115" s="30"/>
+      <c r="N115" s="41"/>
+      <c r="O115" s="41"/>
       <c r="P115" s="21" t="s">
         <v>342</v>
       </c>
@@ -7258,41 +7258,41 @@
       <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="31">
+      <c r="A116" s="30">
         <v>106</v>
       </c>
-      <c r="B116" s="34" t="s">
+      <c r="B116" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C116" s="47" t="s">
+      <c r="C116" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31" t="s">
+      <c r="F116" s="30"/>
+      <c r="G116" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="H116" s="31" t="s">
+      <c r="H116" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I116" s="33">
+      <c r="I116" s="42">
         <v>42860</v>
       </c>
-      <c r="J116" s="31"/>
-      <c r="K116" s="31"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
       <c r="L116" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="M116" s="31"/>
+      <c r="M116" s="30"/>
       <c r="N116" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="O116" s="31"/>
+      <c r="O116" s="30"/>
       <c r="P116" s="24" t="s">
         <v>347</v>
       </c>
@@ -7302,21 +7302,21 @@
       <c r="S116" s="1"/>
     </row>
     <row r="117" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="31"/>
-      <c r="B117" s="34"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="33"/>
-      <c r="J117" s="31"/>
-      <c r="K117" s="31"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="36"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="30"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
       <c r="L117" s="29"/>
-      <c r="M117" s="31"/>
+      <c r="M117" s="30"/>
       <c r="N117" s="29"/>
-      <c r="O117" s="31"/>
+      <c r="O117" s="30"/>
       <c r="P117" s="24" t="s">
         <v>349</v>
       </c>
@@ -7324,41 +7324,41 @@
       <c r="S117" s="1"/>
     </row>
     <row r="118" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="31">
+      <c r="A118" s="30">
         <v>107</v>
       </c>
-      <c r="B118" s="34" t="s">
+      <c r="B118" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C118" s="47" t="s">
+      <c r="C118" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="D118" s="31" t="s">
+      <c r="D118" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31" t="s">
+      <c r="F118" s="30"/>
+      <c r="G118" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="H118" s="31" t="s">
+      <c r="H118" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I118" s="33">
+      <c r="I118" s="42">
         <v>42860</v>
       </c>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
       <c r="L118" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="M118" s="31"/>
+      <c r="M118" s="30"/>
       <c r="N118" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="O118" s="31"/>
+      <c r="O118" s="30"/>
       <c r="P118" s="24" t="s">
         <v>347</v>
       </c>
@@ -7368,21 +7368,21 @@
       <c r="S118" s="1"/>
     </row>
     <row r="119" spans="1:19" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="31"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="31"/>
-      <c r="K119" s="31"/>
+      <c r="A119" s="30"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
       <c r="L119" s="29"/>
-      <c r="M119" s="31"/>
+      <c r="M119" s="30"/>
       <c r="N119" s="29"/>
-      <c r="O119" s="31"/>
+      <c r="O119" s="30"/>
       <c r="P119" s="25" t="s">
         <v>353</v>
       </c>
@@ -7390,285 +7390,285 @@
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="1:19" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="31">
+      <c r="A120" s="30">
         <v>108</v>
       </c>
-      <c r="B120" s="34" t="s">
+      <c r="B120" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C120" s="47" t="s">
+      <c r="C120" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="30" t="s">
+      <c r="D120" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E120" s="30" t="s">
+      <c r="E120" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="F120" s="30"/>
-      <c r="G120" s="30" t="s">
+      <c r="F120" s="31"/>
+      <c r="G120" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H120" s="30" t="s">
+      <c r="H120" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I120" s="33">
+      <c r="I120" s="42">
         <v>42860</v>
       </c>
-      <c r="J120" s="30"/>
-      <c r="K120" s="30"/>
-      <c r="L120" s="38" t="s">
+      <c r="J120" s="31"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="M120" s="30"/>
-      <c r="N120" s="38" t="s">
+      <c r="M120" s="31"/>
+      <c r="N120" s="44" t="s">
         <v>355</v>
       </c>
-      <c r="O120" s="30"/>
+      <c r="O120" s="31"/>
       <c r="P120" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="Q120" s="38" t="s">
+      <c r="Q120" s="44" t="s">
         <v>357</v>
       </c>
       <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="31"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
-      <c r="H121" s="30"/>
-      <c r="I121" s="33"/>
-      <c r="J121" s="30"/>
-      <c r="K121" s="30"/>
-      <c r="L121" s="38"/>
-      <c r="M121" s="30"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="30"/>
+      <c r="A121" s="30"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="31"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="44"/>
+      <c r="M121" s="31"/>
+      <c r="N121" s="44"/>
+      <c r="O121" s="31"/>
       <c r="P121" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="Q121" s="38"/>
+      <c r="Q121" s="44"/>
       <c r="S121" s="1"/>
     </row>
     <row r="122" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="31">
+      <c r="A122" s="30">
         <v>109</v>
       </c>
-      <c r="B122" s="34" t="s">
+      <c r="B122" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C122" s="46" t="s">
+      <c r="C122" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31" t="s">
+      <c r="F122" s="30"/>
+      <c r="G122" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="H122" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I122" s="33">
+      <c r="I122" s="42">
         <v>42860</v>
       </c>
-      <c r="J122" s="31"/>
-      <c r="K122" s="31"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
       <c r="L122" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="M122" s="31"/>
-      <c r="N122" s="44" t="s">
+      <c r="M122" s="30"/>
+      <c r="N122" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="O122" s="31"/>
+      <c r="O122" s="30"/>
       <c r="P122" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="Q122" s="31" t="s">
+      <c r="Q122" s="30" t="s">
         <v>363</v>
       </c>
       <c r="S122" s="1"/>
     </row>
     <row r="123" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="31"/>
-      <c r="B123" s="34"/>
-      <c r="C123" s="46"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="33"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
+      <c r="A123" s="30"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
       <c r="L123" s="29"/>
-      <c r="M123" s="31"/>
-      <c r="N123" s="44"/>
-      <c r="O123" s="31"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="30"/>
       <c r="P123" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="Q123" s="31"/>
+      <c r="Q123" s="30"/>
       <c r="S123" s="1"/>
     </row>
     <row r="124" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="31">
+      <c r="A124" s="30">
         <v>110</v>
       </c>
-      <c r="B124" s="30" t="s">
+      <c r="B124" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C124" s="46" t="s">
+      <c r="C124" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D124" s="30" t="s">
+      <c r="D124" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E124" s="30" t="s">
+      <c r="E124" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30" t="s">
+      <c r="F124" s="31"/>
+      <c r="G124" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H124" s="30" t="s">
+      <c r="H124" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I124" s="39">
+      <c r="I124" s="32">
         <v>42860</v>
       </c>
-      <c r="J124" s="30"/>
-      <c r="K124" s="30"/>
-      <c r="L124" s="38" t="s">
+      <c r="J124" s="31"/>
+      <c r="K124" s="31"/>
+      <c r="L124" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="M124" s="30"/>
-      <c r="N124" s="28" t="s">
+      <c r="M124" s="31"/>
+      <c r="N124" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O124" s="35" t="s">
+      <c r="O124" s="45" t="s">
         <v>411</v>
       </c>
       <c r="P124" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="Q124" s="38" t="s">
+      <c r="Q124" s="44" t="s">
         <v>366</v>
       </c>
       <c r="S124" s="1"/>
     </row>
     <row r="125" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="31"/>
-      <c r="B125" s="30"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="30"/>
-      <c r="K125" s="30"/>
-      <c r="L125" s="30"/>
-      <c r="M125" s="30"/>
-      <c r="N125" s="28"/>
-      <c r="O125" s="36"/>
+      <c r="A125" s="30"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="31"/>
+      <c r="M125" s="31"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="46"/>
       <c r="P125" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q125" s="30"/>
+      <c r="Q125" s="31"/>
       <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="31"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-      <c r="H126" s="30"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="30"/>
-      <c r="K126" s="30"/>
-      <c r="L126" s="30"/>
-      <c r="M126" s="30"/>
-      <c r="N126" s="28"/>
-      <c r="O126" s="36"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="31"/>
+      <c r="K126" s="31"/>
+      <c r="L126" s="31"/>
+      <c r="M126" s="31"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="46"/>
       <c r="P126" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="Q126" s="30"/>
+      <c r="Q126" s="31"/>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="31"/>
-      <c r="B127" s="30"/>
-      <c r="C127" s="46"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="30"/>
-      <c r="F127" s="30"/>
-      <c r="G127" s="30"/>
-      <c r="H127" s="30"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="30"/>
-      <c r="K127" s="30"/>
-      <c r="L127" s="30"/>
-      <c r="M127" s="30"/>
-      <c r="N127" s="28"/>
-      <c r="O127" s="37"/>
+      <c r="A127" s="30"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="31"/>
+      <c r="K127" s="31"/>
+      <c r="L127" s="31"/>
+      <c r="M127" s="31"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="47"/>
       <c r="P127" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="Q127" s="30"/>
+      <c r="Q127" s="31"/>
       <c r="S127" s="1"/>
     </row>
     <row r="128" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="31">
+      <c r="A128" s="30">
         <v>111</v>
       </c>
-      <c r="B128" s="30" t="s">
+      <c r="B128" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D128" s="30" t="s">
+      <c r="D128" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E128" s="30" t="s">
+      <c r="E128" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="F128" s="30"/>
-      <c r="G128" s="30" t="s">
+      <c r="F128" s="31"/>
+      <c r="G128" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H128" s="30" t="s">
+      <c r="H128" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I128" s="39">
+      <c r="I128" s="32">
         <v>42860</v>
       </c>
-      <c r="J128" s="30"/>
-      <c r="K128" s="30"/>
+      <c r="J128" s="31"/>
+      <c r="K128" s="31"/>
       <c r="L128" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="M128" s="43"/>
-      <c r="N128" s="28" t="s">
+      <c r="M128" s="28"/>
+      <c r="N128" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O128" s="35" t="s">
+      <c r="O128" s="45" t="s">
         <v>411</v>
       </c>
       <c r="P128" s="19" t="s">
@@ -7680,21 +7680,21 @@
       <c r="S128" s="1"/>
     </row>
     <row r="129" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="31"/>
-      <c r="B129" s="30"/>
-      <c r="C129" s="46"/>
-      <c r="D129" s="30"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="30"/>
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="30"/>
-      <c r="K129" s="30"/>
+      <c r="A129" s="30"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="43"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="31"/>
+      <c r="K129" s="31"/>
       <c r="L129" s="29"/>
-      <c r="M129" s="43"/>
-      <c r="N129" s="28"/>
-      <c r="O129" s="36"/>
+      <c r="M129" s="28"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="46"/>
       <c r="P129" s="18" t="s">
         <v>364</v>
       </c>
@@ -7702,21 +7702,21 @@
       <c r="S129" s="1"/>
     </row>
     <row r="130" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="31"/>
-      <c r="B130" s="30"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="30"/>
-      <c r="H130" s="30"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="30"/>
-      <c r="K130" s="30"/>
+      <c r="A130" s="30"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="31"/>
+      <c r="K130" s="31"/>
       <c r="L130" s="29"/>
-      <c r="M130" s="43"/>
-      <c r="N130" s="28"/>
-      <c r="O130" s="36"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="46"/>
       <c r="P130" s="20" t="s">
         <v>371</v>
       </c>
@@ -7724,21 +7724,21 @@
       <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="31"/>
-      <c r="B131" s="30"/>
-      <c r="C131" s="46"/>
-      <c r="D131" s="30"/>
-      <c r="E131" s="30"/>
-      <c r="F131" s="30"/>
-      <c r="G131" s="30"/>
-      <c r="H131" s="30"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="30"/>
-      <c r="K131" s="30"/>
+      <c r="A131" s="30"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="31"/>
       <c r="L131" s="29"/>
-      <c r="M131" s="43"/>
-      <c r="N131" s="28"/>
-      <c r="O131" s="37"/>
+      <c r="M131" s="28"/>
+      <c r="N131" s="34"/>
+      <c r="O131" s="47"/>
       <c r="P131" s="20" t="s">
         <v>372</v>
       </c>
@@ -7746,41 +7746,41 @@
       <c r="S131" s="1"/>
     </row>
     <row r="132" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="31">
+      <c r="A132" s="30">
         <v>112</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="46" t="s">
+      <c r="C132" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D132" s="30" t="s">
+      <c r="D132" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E132" s="30" t="s">
+      <c r="E132" s="31" t="s">
         <v>393</v>
       </c>
-      <c r="F132" s="30"/>
-      <c r="G132" s="30" t="s">
+      <c r="F132" s="31"/>
+      <c r="G132" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H132" s="30" t="s">
+      <c r="H132" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I132" s="39">
+      <c r="I132" s="32">
         <v>42860</v>
       </c>
-      <c r="J132" s="30"/>
-      <c r="K132" s="30"/>
+      <c r="J132" s="31"/>
+      <c r="K132" s="31"/>
       <c r="L132" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="M132" s="43"/>
-      <c r="N132" s="28" t="s">
+      <c r="M132" s="28"/>
+      <c r="N132" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O132" s="38" t="s">
+      <c r="O132" s="44" t="s">
         <v>411</v>
       </c>
       <c r="P132" s="19" t="s">
@@ -7792,21 +7792,21 @@
       <c r="S132" s="1"/>
     </row>
     <row r="133" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="31"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="30"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="30"/>
-      <c r="K133" s="30"/>
+      <c r="A133" s="30"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="31"/>
+      <c r="K133" s="31"/>
       <c r="L133" s="29"/>
-      <c r="M133" s="43"/>
-      <c r="N133" s="28"/>
-      <c r="O133" s="38"/>
+      <c r="M133" s="28"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="44"/>
       <c r="P133" s="18" t="s">
         <v>364</v>
       </c>
@@ -7814,21 +7814,21 @@
       <c r="S133" s="1"/>
     </row>
     <row r="134" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="31"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="30"/>
-      <c r="K134" s="30"/>
+      <c r="A134" s="30"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="43"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="31"/>
+      <c r="K134" s="31"/>
       <c r="L134" s="29"/>
-      <c r="M134" s="43"/>
-      <c r="N134" s="28"/>
-      <c r="O134" s="38"/>
+      <c r="M134" s="28"/>
+      <c r="N134" s="34"/>
+      <c r="O134" s="44"/>
       <c r="P134" s="20" t="s">
         <v>375</v>
       </c>
@@ -7836,21 +7836,21 @@
       <c r="S134" s="1"/>
     </row>
     <row r="135" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="31"/>
-      <c r="B135" s="30"/>
-      <c r="C135" s="46"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="30"/>
-      <c r="H135" s="30"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="30"/>
-      <c r="K135" s="30"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
       <c r="L135" s="29"/>
-      <c r="M135" s="43"/>
-      <c r="N135" s="28"/>
-      <c r="O135" s="38"/>
+      <c r="M135" s="28"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="44"/>
       <c r="P135" s="20" t="s">
         <v>376</v>
       </c>
@@ -7858,41 +7858,41 @@
       <c r="S135" s="1"/>
     </row>
     <row r="136" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="31">
+      <c r="A136" s="30">
         <v>113</v>
       </c>
-      <c r="B136" s="30" t="s">
+      <c r="B136" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C136" s="46" t="s">
+      <c r="C136" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D136" s="30" t="s">
+      <c r="D136" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E136" s="30" t="s">
+      <c r="E136" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30" t="s">
+      <c r="F136" s="31"/>
+      <c r="G136" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H136" s="30" t="s">
+      <c r="H136" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I136" s="39">
+      <c r="I136" s="32">
         <v>42860</v>
       </c>
-      <c r="J136" s="30"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="31" t="s">
+      <c r="J136" s="31"/>
+      <c r="K136" s="31"/>
+      <c r="L136" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="M136" s="43"/>
-      <c r="N136" s="28" t="s">
+      <c r="M136" s="28"/>
+      <c r="N136" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O136" s="38" t="s">
+      <c r="O136" s="44" t="s">
         <v>411</v>
       </c>
       <c r="P136" s="19" t="s">
@@ -7904,107 +7904,107 @@
       <c r="S136" s="1"/>
     </row>
     <row r="137" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="31"/>
-      <c r="B137" s="30"/>
-      <c r="C137" s="46"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
-      <c r="L137" s="31"/>
-      <c r="M137" s="43"/>
-      <c r="N137" s="28"/>
-      <c r="O137" s="38"/>
+      <c r="A137" s="30"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="31"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="31"/>
+      <c r="K137" s="31"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="28"/>
+      <c r="N137" s="34"/>
+      <c r="O137" s="44"/>
       <c r="P137" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q137" s="31"/>
+      <c r="Q137" s="30"/>
       <c r="S137" s="1"/>
     </row>
     <row r="138" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="31"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="31"/>
-      <c r="M138" s="43"/>
-      <c r="N138" s="28"/>
-      <c r="O138" s="38"/>
+      <c r="A138" s="30"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="44"/>
       <c r="P138" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="Q138" s="31"/>
+      <c r="Q138" s="30"/>
       <c r="S138" s="1"/>
     </row>
     <row r="139" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="31"/>
-      <c r="B139" s="30"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="30"/>
-      <c r="E139" s="30"/>
-      <c r="F139" s="30"/>
-      <c r="G139" s="30"/>
-      <c r="H139" s="30"/>
-      <c r="I139" s="31"/>
-      <c r="J139" s="30"/>
-      <c r="K139" s="30"/>
-      <c r="L139" s="31"/>
-      <c r="M139" s="43"/>
-      <c r="N139" s="28"/>
-      <c r="O139" s="38"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="43"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="31"/>
+      <c r="K139" s="31"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="28"/>
+      <c r="N139" s="34"/>
+      <c r="O139" s="44"/>
       <c r="P139" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="Q139" s="31"/>
+      <c r="Q139" s="30"/>
       <c r="S139" s="1"/>
     </row>
     <row r="140" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="31">
+      <c r="A140" s="30">
         <v>114</v>
       </c>
-      <c r="B140" s="30" t="s">
+      <c r="B140" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C140" s="46" t="s">
+      <c r="C140" s="43" t="s">
         <v>359</v>
       </c>
-      <c r="D140" s="30" t="s">
+      <c r="D140" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E140" s="30" t="s">
+      <c r="E140" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="F140" s="30"/>
-      <c r="G140" s="30" t="s">
+      <c r="F140" s="31"/>
+      <c r="G140" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H140" s="30" t="s">
+      <c r="H140" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I140" s="39">
+      <c r="I140" s="32">
         <v>42860</v>
       </c>
-      <c r="J140" s="30"/>
-      <c r="K140" s="30"/>
-      <c r="L140" s="31" t="s">
+      <c r="J140" s="31"/>
+      <c r="K140" s="31"/>
+      <c r="L140" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="M140" s="43"/>
-      <c r="N140" s="28" t="s">
+      <c r="M140" s="28"/>
+      <c r="N140" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O140" s="43"/>
+      <c r="O140" s="28"/>
       <c r="P140" s="19" t="s">
         <v>362</v>
       </c>
@@ -8014,282 +8014,282 @@
       <c r="S140" s="1"/>
     </row>
     <row r="141" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="31"/>
-      <c r="B141" s="30"/>
-      <c r="C141" s="46"/>
-      <c r="D141" s="30"/>
-      <c r="E141" s="30"/>
-      <c r="F141" s="30"/>
-      <c r="G141" s="30"/>
-      <c r="H141" s="30"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="30"/>
-      <c r="K141" s="30"/>
-      <c r="L141" s="31"/>
-      <c r="M141" s="43"/>
-      <c r="N141" s="28"/>
-      <c r="O141" s="43"/>
+      <c r="A141" s="30"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="43"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="31"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="28"/>
+      <c r="N141" s="34"/>
+      <c r="O141" s="28"/>
       <c r="P141" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q141" s="31"/>
+      <c r="Q141" s="30"/>
       <c r="S141" s="1"/>
     </row>
     <row r="142" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="31"/>
-      <c r="B142" s="30"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
-      <c r="L142" s="31"/>
-      <c r="M142" s="43"/>
-      <c r="N142" s="28"/>
-      <c r="O142" s="43"/>
+      <c r="A142" s="30"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="43"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="31"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="31"/>
+      <c r="K142" s="31"/>
+      <c r="L142" s="30"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="34"/>
+      <c r="O142" s="28"/>
       <c r="P142" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="Q142" s="31"/>
+      <c r="Q142" s="30"/>
       <c r="S142" s="1"/>
     </row>
     <row r="143" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="31"/>
-      <c r="B143" s="30"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="30"/>
-      <c r="F143" s="30"/>
-      <c r="G143" s="30"/>
-      <c r="H143" s="30"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="30"/>
-      <c r="K143" s="30"/>
-      <c r="L143" s="31"/>
-      <c r="M143" s="43"/>
-      <c r="N143" s="28"/>
-      <c r="O143" s="43"/>
+      <c r="A143" s="30"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="31"/>
+      <c r="K143" s="31"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="28"/>
+      <c r="N143" s="34"/>
+      <c r="O143" s="28"/>
       <c r="P143" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="Q143" s="31"/>
+      <c r="Q143" s="30"/>
       <c r="S143" s="1"/>
     </row>
     <row r="144" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="31">
+      <c r="A144" s="30">
         <v>115</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C144" s="32" t="s">
+      <c r="C144" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="31" t="s">
+      <c r="D144" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="F144" s="31"/>
-      <c r="G144" s="31" t="s">
+      <c r="F144" s="30"/>
+      <c r="G144" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="H144" s="31" t="s">
+      <c r="H144" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I144" s="33">
+      <c r="I144" s="42">
         <v>42860</v>
       </c>
-      <c r="J144" s="31"/>
-      <c r="K144" s="31"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
       <c r="L144" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="M144" s="31"/>
-      <c r="N144" s="44" t="s">
+      <c r="M144" s="30"/>
+      <c r="N144" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="O144" s="31"/>
+      <c r="O144" s="30"/>
       <c r="P144" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="Q144" s="31" t="s">
+      <c r="Q144" s="30" t="s">
         <v>363</v>
       </c>
       <c r="S144" s="1"/>
     </row>
     <row r="145" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="31"/>
-      <c r="B145" s="34"/>
-      <c r="C145" s="32"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="33"/>
-      <c r="J145" s="31"/>
-      <c r="K145" s="31"/>
+      <c r="A145" s="30"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
       <c r="L145" s="29"/>
-      <c r="M145" s="31"/>
-      <c r="N145" s="44"/>
-      <c r="O145" s="31"/>
+      <c r="M145" s="30"/>
+      <c r="N145" s="48"/>
+      <c r="O145" s="30"/>
       <c r="P145" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="Q145" s="31"/>
+      <c r="Q145" s="30"/>
       <c r="S145" s="1"/>
     </row>
     <row r="146" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="31">
+      <c r="A146" s="30">
         <v>116</v>
       </c>
-      <c r="B146" s="30" t="s">
+      <c r="B146" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="C146" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="30" t="s">
+      <c r="D146" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E146" s="30" t="s">
+      <c r="E146" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30" t="s">
+      <c r="F146" s="31"/>
+      <c r="G146" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H146" s="30" t="s">
+      <c r="H146" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I146" s="39">
+      <c r="I146" s="32">
         <v>42860</v>
       </c>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="38" t="s">
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="L146" s="44" t="s">
         <v>365</v>
       </c>
-      <c r="M146" s="30"/>
-      <c r="N146" s="28" t="s">
+      <c r="M146" s="31"/>
+      <c r="N146" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O146" s="35" t="s">
+      <c r="O146" s="45" t="s">
         <v>411</v>
       </c>
       <c r="P146" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="Q146" s="38" t="s">
+      <c r="Q146" s="44" t="s">
         <v>366</v>
       </c>
       <c r="S146" s="1"/>
     </row>
     <row r="147" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="31"/>
-      <c r="B147" s="30"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="30"/>
-      <c r="E147" s="30"/>
-      <c r="F147" s="30"/>
-      <c r="G147" s="30"/>
-      <c r="H147" s="30"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="30"/>
-      <c r="K147" s="30"/>
-      <c r="L147" s="30"/>
-      <c r="M147" s="30"/>
-      <c r="N147" s="28"/>
-      <c r="O147" s="36"/>
+      <c r="A147" s="30"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="31"/>
+      <c r="L147" s="31"/>
+      <c r="M147" s="31"/>
+      <c r="N147" s="34"/>
+      <c r="O147" s="46"/>
       <c r="P147" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q147" s="30"/>
+      <c r="Q147" s="31"/>
       <c r="S147" s="1"/>
     </row>
     <row r="148" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="31"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="30"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="30"/>
-      <c r="K148" s="30"/>
-      <c r="L148" s="30"/>
-      <c r="M148" s="30"/>
-      <c r="N148" s="28"/>
-      <c r="O148" s="36"/>
+      <c r="A148" s="30"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="31"/>
+      <c r="K148" s="31"/>
+      <c r="L148" s="31"/>
+      <c r="M148" s="31"/>
+      <c r="N148" s="34"/>
+      <c r="O148" s="46"/>
       <c r="P148" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="Q148" s="30"/>
+      <c r="Q148" s="31"/>
       <c r="S148" s="1"/>
     </row>
     <row r="149" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="31"/>
-      <c r="B149" s="30"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="30"/>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="30"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="30"/>
-      <c r="K149" s="30"/>
-      <c r="L149" s="30"/>
-      <c r="M149" s="30"/>
-      <c r="N149" s="28"/>
-      <c r="O149" s="37"/>
+      <c r="A149" s="30"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="31"/>
+      <c r="K149" s="31"/>
+      <c r="L149" s="31"/>
+      <c r="M149" s="31"/>
+      <c r="N149" s="34"/>
+      <c r="O149" s="47"/>
       <c r="P149" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="Q149" s="30"/>
+      <c r="Q149" s="31"/>
       <c r="S149" s="1"/>
     </row>
     <row r="150" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="31">
+      <c r="A150" s="30">
         <v>117</v>
       </c>
-      <c r="B150" s="30" t="s">
+      <c r="B150" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="30" t="s">
+      <c r="D150" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30" t="s">
+      <c r="F150" s="31"/>
+      <c r="G150" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H150" s="30" t="s">
+      <c r="H150" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I150" s="39">
+      <c r="I150" s="32">
         <v>42860</v>
       </c>
-      <c r="J150" s="30"/>
-      <c r="K150" s="30"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
       <c r="L150" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="M150" s="43"/>
-      <c r="N150" s="28" t="s">
+      <c r="M150" s="28"/>
+      <c r="N150" s="34" t="s">
         <v>361</v>
       </c>
       <c r="O150" s="29" t="s">
@@ -8304,20 +8304,20 @@
       <c r="S150" s="1"/>
     </row>
     <row r="151" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="31"/>
-      <c r="B151" s="30"/>
-      <c r="C151" s="32"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="31"/>
-      <c r="J151" s="30"/>
-      <c r="K151" s="30"/>
+      <c r="A151" s="30"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="33"/>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="31"/>
+      <c r="K151" s="31"/>
       <c r="L151" s="29"/>
-      <c r="M151" s="43"/>
-      <c r="N151" s="28"/>
+      <c r="M151" s="28"/>
+      <c r="N151" s="34"/>
       <c r="O151" s="29"/>
       <c r="P151" s="18" t="s">
         <v>364</v>
@@ -8326,20 +8326,20 @@
       <c r="S151" s="1"/>
     </row>
     <row r="152" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="31"/>
-      <c r="B152" s="30"/>
-      <c r="C152" s="32"/>
-      <c r="D152" s="30"/>
-      <c r="E152" s="30"/>
-      <c r="F152" s="30"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="30"/>
-      <c r="I152" s="31"/>
-      <c r="J152" s="30"/>
-      <c r="K152" s="30"/>
+      <c r="A152" s="30"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="31"/>
+      <c r="E152" s="31"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="31"/>
+      <c r="K152" s="31"/>
       <c r="L152" s="29"/>
-      <c r="M152" s="43"/>
-      <c r="N152" s="28"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="34"/>
       <c r="O152" s="29"/>
       <c r="P152" s="20" t="s">
         <v>371</v>
@@ -8348,20 +8348,20 @@
       <c r="S152" s="1"/>
     </row>
     <row r="153" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="31"/>
-      <c r="B153" s="30"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="30"/>
-      <c r="E153" s="30"/>
-      <c r="F153" s="30"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="30"/>
-      <c r="I153" s="31"/>
-      <c r="J153" s="30"/>
-      <c r="K153" s="30"/>
+      <c r="A153" s="30"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="31"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
       <c r="L153" s="29"/>
-      <c r="M153" s="43"/>
-      <c r="N153" s="28"/>
+      <c r="M153" s="28"/>
+      <c r="N153" s="34"/>
       <c r="O153" s="29"/>
       <c r="P153" s="20" t="s">
         <v>372</v>
@@ -8370,38 +8370,38 @@
       <c r="S153" s="1"/>
     </row>
     <row r="154" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="31">
+      <c r="A154" s="30">
         <v>118</v>
       </c>
-      <c r="B154" s="30" t="s">
+      <c r="B154" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C154" s="32" t="s">
+      <c r="C154" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D154" s="30" t="s">
+      <c r="D154" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E154" s="30" t="s">
+      <c r="E154" s="31" t="s">
         <v>399</v>
       </c>
-      <c r="F154" s="30"/>
-      <c r="G154" s="30" t="s">
+      <c r="F154" s="31"/>
+      <c r="G154" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H154" s="30" t="s">
+      <c r="H154" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I154" s="39">
+      <c r="I154" s="32">
         <v>42860</v>
       </c>
-      <c r="J154" s="30"/>
-      <c r="K154" s="30"/>
+      <c r="J154" s="31"/>
+      <c r="K154" s="31"/>
       <c r="L154" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="M154" s="43"/>
-      <c r="N154" s="28" t="s">
+      <c r="M154" s="28"/>
+      <c r="N154" s="34" t="s">
         <v>361</v>
       </c>
       <c r="O154" s="29" t="s">
@@ -8416,20 +8416,20 @@
       <c r="S154" s="1"/>
     </row>
     <row r="155" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="31"/>
-      <c r="B155" s="30"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="31"/>
-      <c r="J155" s="30"/>
-      <c r="K155" s="30"/>
+      <c r="A155" s="30"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="33"/>
+      <c r="D155" s="31"/>
+      <c r="E155" s="31"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="31"/>
+      <c r="K155" s="31"/>
       <c r="L155" s="29"/>
-      <c r="M155" s="43"/>
-      <c r="N155" s="28"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="34"/>
       <c r="O155" s="29"/>
       <c r="P155" s="18" t="s">
         <v>364</v>
@@ -8438,20 +8438,20 @@
       <c r="S155" s="1"/>
     </row>
     <row r="156" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="31"/>
-      <c r="B156" s="30"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="30"/>
-      <c r="E156" s="30"/>
-      <c r="F156" s="30"/>
-      <c r="G156" s="30"/>
-      <c r="H156" s="30"/>
-      <c r="I156" s="31"/>
-      <c r="J156" s="30"/>
-      <c r="K156" s="30"/>
+      <c r="A156" s="30"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="33"/>
+      <c r="D156" s="31"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="31"/>
+      <c r="K156" s="31"/>
       <c r="L156" s="29"/>
-      <c r="M156" s="43"/>
-      <c r="N156" s="28"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="34"/>
       <c r="O156" s="29"/>
       <c r="P156" s="20" t="s">
         <v>375</v>
@@ -8460,20 +8460,20 @@
       <c r="S156" s="1"/>
     </row>
     <row r="157" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="31"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="32"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="31"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
+      <c r="A157" s="30"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="31"/>
+      <c r="E157" s="31"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="31"/>
+      <c r="K157" s="31"/>
       <c r="L157" s="29"/>
-      <c r="M157" s="43"/>
-      <c r="N157" s="28"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="34"/>
       <c r="O157" s="29"/>
       <c r="P157" s="20" t="s">
         <v>376</v>
@@ -8482,38 +8482,38 @@
       <c r="S157" s="1"/>
     </row>
     <row r="158" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="31">
+      <c r="A158" s="30">
         <v>119</v>
       </c>
-      <c r="B158" s="30" t="s">
+      <c r="B158" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="C158" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="30" t="s">
+      <c r="D158" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E158" s="30" t="s">
+      <c r="E158" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30" t="s">
+      <c r="F158" s="31"/>
+      <c r="G158" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H158" s="30" t="s">
+      <c r="H158" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I158" s="39">
+      <c r="I158" s="32">
         <v>42860</v>
       </c>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="31" t="s">
+      <c r="J158" s="31"/>
+      <c r="K158" s="31"/>
+      <c r="L158" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="M158" s="43"/>
-      <c r="N158" s="28" t="s">
+      <c r="M158" s="28"/>
+      <c r="N158" s="34" t="s">
         <v>361</v>
       </c>
       <c r="O158" s="29" t="s">
@@ -8528,107 +8528,107 @@
       <c r="S158" s="1"/>
     </row>
     <row r="159" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="31"/>
-      <c r="B159" s="30"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="30"/>
-      <c r="E159" s="30"/>
-      <c r="F159" s="30"/>
-      <c r="G159" s="30"/>
-      <c r="H159" s="30"/>
-      <c r="I159" s="31"/>
-      <c r="J159" s="30"/>
-      <c r="K159" s="30"/>
-      <c r="L159" s="31"/>
-      <c r="M159" s="43"/>
-      <c r="N159" s="28"/>
+      <c r="A159" s="30"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="33"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="31"/>
+      <c r="K159" s="31"/>
+      <c r="L159" s="30"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="34"/>
       <c r="O159" s="29"/>
       <c r="P159" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q159" s="31"/>
+      <c r="Q159" s="30"/>
       <c r="S159" s="1"/>
     </row>
     <row r="160" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="31"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="32"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="31"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="31"/>
-      <c r="M160" s="43"/>
-      <c r="N160" s="28"/>
+      <c r="A160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="33"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="31"/>
+      <c r="K160" s="31"/>
+      <c r="L160" s="30"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="34"/>
       <c r="O160" s="29"/>
       <c r="P160" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="Q160" s="31"/>
+      <c r="Q160" s="30"/>
       <c r="S160" s="1"/>
     </row>
     <row r="161" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="31"/>
-      <c r="B161" s="30"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="30"/>
-      <c r="E161" s="30"/>
-      <c r="F161" s="30"/>
-      <c r="G161" s="30"/>
-      <c r="H161" s="30"/>
-      <c r="I161" s="31"/>
-      <c r="J161" s="30"/>
-      <c r="K161" s="30"/>
-      <c r="L161" s="31"/>
-      <c r="M161" s="43"/>
-      <c r="N161" s="28"/>
+      <c r="A161" s="30"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="31"/>
+      <c r="K161" s="31"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="28"/>
+      <c r="N161" s="34"/>
       <c r="O161" s="29"/>
       <c r="P161" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="Q161" s="31"/>
+      <c r="Q161" s="30"/>
       <c r="S161" s="1"/>
     </row>
     <row r="162" spans="1:19" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="31">
+      <c r="A162" s="30">
         <v>120</v>
       </c>
-      <c r="B162" s="30" t="s">
+      <c r="B162" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C162" s="32" t="s">
+      <c r="C162" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D162" s="30" t="s">
+      <c r="D162" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="E162" s="30" t="s">
+      <c r="E162" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30" t="s">
+      <c r="F162" s="31"/>
+      <c r="G162" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="H162" s="30" t="s">
+      <c r="H162" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I162" s="39">
+      <c r="I162" s="32">
         <v>42860</v>
       </c>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
-      <c r="L162" s="31" t="s">
+      <c r="J162" s="31"/>
+      <c r="K162" s="31"/>
+      <c r="L162" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="M162" s="43"/>
-      <c r="N162" s="28" t="s">
+      <c r="M162" s="28"/>
+      <c r="N162" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="O162" s="43"/>
+      <c r="O162" s="28"/>
       <c r="P162" s="19" t="s">
         <v>385</v>
       </c>
@@ -8638,69 +8638,69 @@
       <c r="S162" s="1"/>
     </row>
     <row r="163" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="31"/>
-      <c r="B163" s="30"/>
-      <c r="C163" s="32"/>
-      <c r="D163" s="30"/>
-      <c r="E163" s="30"/>
-      <c r="F163" s="30"/>
-      <c r="G163" s="30"/>
-      <c r="H163" s="30"/>
-      <c r="I163" s="31"/>
-      <c r="J163" s="30"/>
-      <c r="K163" s="30"/>
-      <c r="L163" s="31"/>
-      <c r="M163" s="43"/>
-      <c r="N163" s="28"/>
-      <c r="O163" s="43"/>
+      <c r="A163" s="30"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="33"/>
+      <c r="D163" s="31"/>
+      <c r="E163" s="31"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="31"/>
+      <c r="K163" s="31"/>
+      <c r="L163" s="30"/>
+      <c r="M163" s="28"/>
+      <c r="N163" s="34"/>
+      <c r="O163" s="28"/>
       <c r="P163" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="Q163" s="31"/>
+      <c r="Q163" s="30"/>
       <c r="S163" s="1"/>
     </row>
     <row r="164" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="31"/>
-      <c r="B164" s="30"/>
-      <c r="C164" s="32"/>
-      <c r="D164" s="30"/>
-      <c r="E164" s="30"/>
-      <c r="F164" s="30"/>
-      <c r="G164" s="30"/>
-      <c r="H164" s="30"/>
-      <c r="I164" s="31"/>
-      <c r="J164" s="30"/>
-      <c r="K164" s="30"/>
-      <c r="L164" s="31"/>
-      <c r="M164" s="43"/>
-      <c r="N164" s="28"/>
-      <c r="O164" s="43"/>
+      <c r="A164" s="30"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="31"/>
+      <c r="E164" s="31"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="31"/>
+      <c r="K164" s="31"/>
+      <c r="L164" s="30"/>
+      <c r="M164" s="28"/>
+      <c r="N164" s="34"/>
+      <c r="O164" s="28"/>
       <c r="P164" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="Q164" s="31"/>
+      <c r="Q164" s="30"/>
       <c r="S164" s="1"/>
     </row>
     <row r="165" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="31"/>
-      <c r="B165" s="30"/>
-      <c r="C165" s="32"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="30"/>
-      <c r="H165" s="30"/>
-      <c r="I165" s="31"/>
-      <c r="J165" s="30"/>
-      <c r="K165" s="30"/>
-      <c r="L165" s="31"/>
-      <c r="M165" s="43"/>
-      <c r="N165" s="28"/>
-      <c r="O165" s="43"/>
+      <c r="A165" s="30"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="31"/>
+      <c r="E165" s="31"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="31"/>
+      <c r="K165" s="31"/>
+      <c r="L165" s="30"/>
+      <c r="M165" s="28"/>
+      <c r="N165" s="34"/>
+      <c r="O165" s="28"/>
       <c r="P165" s="20" t="s">
         <v>384</v>
       </c>
-      <c r="Q165" s="31"/>
+      <c r="Q165" s="30"/>
       <c r="S165" s="1"/>
     </row>
     <row r="166" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14207,15 +14207,325 @@
   </sheetData>
   <autoFilter ref="A1:T406"/>
   <mergeCells count="352">
-    <mergeCell ref="O162:O165"/>
-    <mergeCell ref="Q162:Q165"/>
-    <mergeCell ref="G162:G165"/>
-    <mergeCell ref="H162:H165"/>
-    <mergeCell ref="I162:I165"/>
-    <mergeCell ref="J162:J165"/>
-    <mergeCell ref="K162:K165"/>
-    <mergeCell ref="L162:L165"/>
-    <mergeCell ref="K158:K161"/>
+    <mergeCell ref="N150:N153"/>
+    <mergeCell ref="O150:O153"/>
+    <mergeCell ref="Q150:Q153"/>
+    <mergeCell ref="K150:K153"/>
+    <mergeCell ref="Q140:Q143"/>
+    <mergeCell ref="Q144:Q145"/>
+    <mergeCell ref="A146:A149"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="G146:G149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="G144:G145"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="O146:O149"/>
+    <mergeCell ref="Q146:Q149"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="Q98:Q99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="I100:I101"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="O105:O107"/>
+    <mergeCell ref="H108:H110"/>
+    <mergeCell ref="L128:L131"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="J136:J139"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="N140:N143"/>
+    <mergeCell ref="M140:M143"/>
+    <mergeCell ref="O140:O143"/>
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="I140:I143"/>
+    <mergeCell ref="J140:J143"/>
+    <mergeCell ref="K140:K143"/>
+    <mergeCell ref="L140:L143"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="L144:L145"/>
+    <mergeCell ref="M144:M145"/>
+    <mergeCell ref="N144:N145"/>
+    <mergeCell ref="O144:O145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="Q100:Q101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="F102:F104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="H102:H104"/>
+    <mergeCell ref="I102:I104"/>
+    <mergeCell ref="J102:J104"/>
+    <mergeCell ref="J100:J101"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="N100:N101"/>
+    <mergeCell ref="O100:O101"/>
+    <mergeCell ref="K102:K104"/>
+    <mergeCell ref="L102:L104"/>
+    <mergeCell ref="M102:M104"/>
+    <mergeCell ref="N102:N104"/>
+    <mergeCell ref="O102:O104"/>
+    <mergeCell ref="Q102:Q104"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="Q136:Q139"/>
+    <mergeCell ref="O136:O139"/>
+    <mergeCell ref="N136:N139"/>
+    <mergeCell ref="K136:K139"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="F105:F107"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="L136:L139"/>
+    <mergeCell ref="M136:M139"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="N132:N135"/>
+    <mergeCell ref="Q132:Q135"/>
+    <mergeCell ref="M132:M135"/>
+    <mergeCell ref="O132:O135"/>
+    <mergeCell ref="I132:I135"/>
+    <mergeCell ref="J132:J135"/>
+    <mergeCell ref="K132:K135"/>
+    <mergeCell ref="L132:L135"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="A136:A139"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="H132:H135"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="E132:E135"/>
+    <mergeCell ref="F132:F135"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="I136:I139"/>
+    <mergeCell ref="Q105:Q107"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="I128:I131"/>
+    <mergeCell ref="J128:J131"/>
+    <mergeCell ref="O108:O110"/>
+    <mergeCell ref="Q108:Q110"/>
+    <mergeCell ref="I108:I110"/>
+    <mergeCell ref="J108:J110"/>
+    <mergeCell ref="K108:K110"/>
+    <mergeCell ref="L108:L110"/>
+    <mergeCell ref="M108:M110"/>
+    <mergeCell ref="N108:N110"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="M114:M115"/>
+    <mergeCell ref="N120:N121"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="J120:J121"/>
+    <mergeCell ref="O112:O113"/>
+    <mergeCell ref="Q112:Q113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="E124:E127"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="I124:I127"/>
+    <mergeCell ref="H124:H127"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="N128:N131"/>
+    <mergeCell ref="M128:M131"/>
+    <mergeCell ref="O128:O131"/>
+    <mergeCell ref="Q128:Q131"/>
+    <mergeCell ref="K128:K131"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="H120:H121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="I120:I121"/>
+    <mergeCell ref="O120:O121"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="E108:E110"/>
+    <mergeCell ref="F108:F110"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="Q122:Q123"/>
+    <mergeCell ref="Q120:Q121"/>
+    <mergeCell ref="Q124:Q127"/>
+    <mergeCell ref="O124:O127"/>
+    <mergeCell ref="N124:N127"/>
+    <mergeCell ref="M124:M127"/>
+    <mergeCell ref="L124:L127"/>
+    <mergeCell ref="K124:K127"/>
+    <mergeCell ref="J124:J127"/>
+    <mergeCell ref="O122:O123"/>
+    <mergeCell ref="N122:N123"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="F118:F119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="G120:G121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="N112:N113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="Q114:Q115"/>
+    <mergeCell ref="Q116:Q117"/>
+    <mergeCell ref="Q118:Q119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="N118:N119"/>
+    <mergeCell ref="O116:O117"/>
+    <mergeCell ref="N116:N117"/>
+    <mergeCell ref="O114:O115"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="I118:I119"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="H114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="N154:N157"/>
+    <mergeCell ref="O154:O157"/>
+    <mergeCell ref="Q154:Q157"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="D158:D161"/>
+    <mergeCell ref="E158:E161"/>
+    <mergeCell ref="G154:G157"/>
+    <mergeCell ref="H154:H157"/>
+    <mergeCell ref="I154:I157"/>
+    <mergeCell ref="J154:J157"/>
+    <mergeCell ref="K154:K157"/>
+    <mergeCell ref="L154:L157"/>
+    <mergeCell ref="O158:O161"/>
+    <mergeCell ref="Q158:Q161"/>
+    <mergeCell ref="F158:F161"/>
+    <mergeCell ref="G158:G161"/>
+    <mergeCell ref="H158:H161"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="J118:J119"/>
+    <mergeCell ref="B154:B157"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B165"/>
+    <mergeCell ref="C162:C165"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="E162:E165"/>
+    <mergeCell ref="F162:F165"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A124:A127"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="A140:A143"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="D140:D143"/>
+    <mergeCell ref="E140:E143"/>
+    <mergeCell ref="F140:F143"/>
     <mergeCell ref="A150:A153"/>
     <mergeCell ref="B150:B153"/>
     <mergeCell ref="C150:C153"/>
@@ -14240,325 +14550,15 @@
     <mergeCell ref="I158:I161"/>
     <mergeCell ref="J158:J161"/>
     <mergeCell ref="A154:A157"/>
-    <mergeCell ref="B154:B157"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B165"/>
-    <mergeCell ref="C162:C165"/>
-    <mergeCell ref="D162:D165"/>
-    <mergeCell ref="E162:E165"/>
-    <mergeCell ref="F162:F165"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="N154:N157"/>
-    <mergeCell ref="O154:O157"/>
-    <mergeCell ref="Q154:Q157"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B158:B161"/>
-    <mergeCell ref="C158:C161"/>
-    <mergeCell ref="D158:D161"/>
-    <mergeCell ref="E158:E161"/>
-    <mergeCell ref="G154:G157"/>
-    <mergeCell ref="H154:H157"/>
-    <mergeCell ref="I154:I157"/>
-    <mergeCell ref="J154:J157"/>
-    <mergeCell ref="K154:K157"/>
-    <mergeCell ref="L154:L157"/>
-    <mergeCell ref="O158:O161"/>
-    <mergeCell ref="Q158:Q161"/>
-    <mergeCell ref="F158:F161"/>
-    <mergeCell ref="G158:G161"/>
-    <mergeCell ref="H158:H161"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="K118:K119"/>
-    <mergeCell ref="J118:J119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="H114:H115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="N114:N115"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="N112:N113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="Q114:Q115"/>
-    <mergeCell ref="Q116:Q117"/>
-    <mergeCell ref="Q118:Q119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="N118:N119"/>
-    <mergeCell ref="O116:O117"/>
-    <mergeCell ref="N116:N117"/>
-    <mergeCell ref="O114:O115"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="I118:I119"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="L118:L119"/>
-    <mergeCell ref="M118:M119"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="G120:G121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="Q122:Q123"/>
-    <mergeCell ref="Q120:Q121"/>
-    <mergeCell ref="Q124:Q127"/>
-    <mergeCell ref="O124:O127"/>
-    <mergeCell ref="N124:N127"/>
-    <mergeCell ref="M124:M127"/>
-    <mergeCell ref="L124:L127"/>
-    <mergeCell ref="K124:K127"/>
-    <mergeCell ref="J124:J127"/>
-    <mergeCell ref="O122:O123"/>
-    <mergeCell ref="N122:N123"/>
-    <mergeCell ref="M122:M123"/>
-    <mergeCell ref="L122:L123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="H120:H121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="I120:I121"/>
-    <mergeCell ref="O120:O121"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="N128:N131"/>
-    <mergeCell ref="M128:M131"/>
-    <mergeCell ref="O128:O131"/>
-    <mergeCell ref="Q128:Q131"/>
-    <mergeCell ref="K128:K131"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="G124:G127"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="E124:E127"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="I124:I127"/>
-    <mergeCell ref="H124:H127"/>
-    <mergeCell ref="B124:B127"/>
-    <mergeCell ref="Q105:Q107"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="I128:I131"/>
-    <mergeCell ref="J128:J131"/>
-    <mergeCell ref="O108:O110"/>
-    <mergeCell ref="Q108:Q110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="K108:K110"/>
-    <mergeCell ref="L108:L110"/>
-    <mergeCell ref="M108:M110"/>
-    <mergeCell ref="N108:N110"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="M114:M115"/>
-    <mergeCell ref="N120:N121"/>
-    <mergeCell ref="M120:M121"/>
-    <mergeCell ref="L120:L121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="J120:J121"/>
-    <mergeCell ref="O112:O113"/>
-    <mergeCell ref="Q112:Q113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="A140:A143"/>
-    <mergeCell ref="B140:B143"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="D140:D143"/>
-    <mergeCell ref="E140:E143"/>
-    <mergeCell ref="F140:F143"/>
-    <mergeCell ref="G140:G143"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="A136:A139"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="G132:G135"/>
-    <mergeCell ref="H132:H135"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="B132:B135"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="E132:E135"/>
-    <mergeCell ref="F132:F135"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="Q136:Q139"/>
-    <mergeCell ref="O136:O139"/>
-    <mergeCell ref="N136:N139"/>
-    <mergeCell ref="K136:K139"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="L136:L139"/>
-    <mergeCell ref="M136:M139"/>
-    <mergeCell ref="H136:H139"/>
-    <mergeCell ref="N132:N135"/>
-    <mergeCell ref="Q132:Q135"/>
-    <mergeCell ref="M132:M135"/>
-    <mergeCell ref="O132:O135"/>
-    <mergeCell ref="I132:I135"/>
-    <mergeCell ref="J132:J135"/>
-    <mergeCell ref="K132:K135"/>
-    <mergeCell ref="L132:L135"/>
-    <mergeCell ref="Q100:Q101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="F102:F104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="H102:H104"/>
-    <mergeCell ref="I102:I104"/>
-    <mergeCell ref="J102:J104"/>
-    <mergeCell ref="J100:J101"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="N100:N101"/>
-    <mergeCell ref="O100:O101"/>
-    <mergeCell ref="K102:K104"/>
-    <mergeCell ref="L102:L104"/>
-    <mergeCell ref="M102:M104"/>
-    <mergeCell ref="N102:N104"/>
-    <mergeCell ref="O102:O104"/>
-    <mergeCell ref="Q102:Q104"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="I136:I139"/>
-    <mergeCell ref="J136:J139"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="N140:N143"/>
-    <mergeCell ref="M140:M143"/>
-    <mergeCell ref="O140:O143"/>
-    <mergeCell ref="H140:H143"/>
-    <mergeCell ref="I140:I143"/>
-    <mergeCell ref="J140:J143"/>
-    <mergeCell ref="K140:K143"/>
-    <mergeCell ref="L140:L143"/>
-    <mergeCell ref="J144:J145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="L144:L145"/>
-    <mergeCell ref="M144:M145"/>
-    <mergeCell ref="N144:N145"/>
-    <mergeCell ref="O144:O145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="O105:O107"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="L128:L131"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="Q98:Q99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="I100:I101"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N150:N153"/>
-    <mergeCell ref="O150:O153"/>
-    <mergeCell ref="Q150:Q153"/>
-    <mergeCell ref="K150:K153"/>
-    <mergeCell ref="Q140:Q143"/>
-    <mergeCell ref="Q144:Q145"/>
-    <mergeCell ref="A146:A149"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="G146:G149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:F145"/>
-    <mergeCell ref="G144:G145"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="I144:I145"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="O146:O149"/>
-    <mergeCell ref="Q146:Q149"/>
+    <mergeCell ref="O162:O165"/>
+    <mergeCell ref="Q162:Q165"/>
+    <mergeCell ref="G162:G165"/>
+    <mergeCell ref="H162:H165"/>
+    <mergeCell ref="I162:I165"/>
+    <mergeCell ref="J162:J165"/>
+    <mergeCell ref="K162:K165"/>
+    <mergeCell ref="L162:L165"/>
+    <mergeCell ref="K158:K161"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N122" r:id="rId1"/>
